--- a/Sprint 1/TeamBravo Report rev 1.xlsx
+++ b/Sprint 1/TeamBravo Report rev 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chauh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chauh\Documents\SSW 555\ssw_555_scrum_master_documentations\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA8D599-476C-41D5-8140-821061BBC436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF80BCFC-7D1B-4A65-BF21-D08FC3D1956D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="215">
   <si>
     <t>Done</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -610,6 +610,120 @@
   </si>
   <si>
     <t>Requirement Analysis</t>
+  </si>
+  <si>
+    <t>S5-36</t>
+  </si>
+  <si>
+    <t>Create and Configure Database connection</t>
+  </si>
+  <si>
+    <t>Database Config and Integration</t>
+  </si>
+  <si>
+    <t>EPIC-3</t>
+  </si>
+  <si>
+    <t>S5-41</t>
+  </si>
+  <si>
+    <t>S5-42</t>
+  </si>
+  <si>
+    <t>Choose a database management system (DBMS) that suits your project's requirements, such as MySQL, PostgreSQL, or MongoDB.</t>
+  </si>
+  <si>
+    <t>Install the database software on your server or local machine.</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Database Hosting</t>
+  </si>
+  <si>
+    <t>S5-43</t>
+  </si>
+  <si>
+    <t>S5-44</t>
+  </si>
+  <si>
+    <t>S5-45</t>
+  </si>
+  <si>
+    <t>S5-46</t>
+  </si>
+  <si>
+    <t>Choose a cloud service provider and Create a new virtual machine instance and assign it resources like CPU, memory, and storage.</t>
+  </si>
+  <si>
+    <t>Install the database software on the virtual machine and create a new database instance and assign a name to it.</t>
+  </si>
+  <si>
+    <t>Create a new user account for the database with appropriate privileges.</t>
+  </si>
+  <si>
+    <t>Open the necessary network ports to allow external access to the database.</t>
+  </si>
+  <si>
+    <t>EPIC-4</t>
+  </si>
+  <si>
+    <t>End Customer Service API</t>
+  </si>
+  <si>
+    <t>End-Customer: Create REST API Framework using Swagger</t>
+  </si>
+  <si>
+    <t>Customer Agreement view API</t>
+  </si>
+  <si>
+    <t>Customer Agreement Confirmation API</t>
+  </si>
+  <si>
+    <t>Customer Work Tracking API</t>
+  </si>
+  <si>
+    <t>Sales Service API</t>
+  </si>
+  <si>
+    <t>S5-56</t>
+  </si>
+  <si>
+    <t>S5-57</t>
+  </si>
+  <si>
+    <t>S5-58</t>
+  </si>
+  <si>
+    <t>S5-50</t>
+  </si>
+  <si>
+    <t>Sales: Create REST API Framework using Swagger</t>
+  </si>
+  <si>
+    <t>S5-53</t>
+  </si>
+  <si>
+    <t>S5-55</t>
+  </si>
+  <si>
+    <t>S5-54</t>
+  </si>
+  <si>
+    <t>Sales Agreement Generate API</t>
+  </si>
+  <si>
+    <t>Sales agreement Confirmation API</t>
+  </si>
+  <si>
+    <t>S5-52</t>
+  </si>
+  <si>
+    <t>Sales Customer Onboarding API</t>
+  </si>
+  <si>
+    <t>Sales Agreement view API</t>
   </si>
 </sst>
 </file>
@@ -797,7 +911,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -823,17 +937,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -846,7 +955,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -868,6 +976,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -937,7 +1046,143 @@
     <cellStyle name="Hyperlink" xfId="65" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="37">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1897,23 +2142,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>178252</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>47839</xdr:rowOff>
+      <xdr:colOff>213197</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>3349</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7133684E-529E-AB30-0EAB-A7BADDF0FE32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7FFA624-874B-9A3A-B32E-9DFD71BC7C51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1929,8 +2174,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="679450" y="10439400"/>
-          <a:ext cx="3238952" cy="1533739"/>
+          <a:off x="571500" y="11169650"/>
+          <a:ext cx="3381847" cy="1247949"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1941,23 +2186,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>755650</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>498923</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>152634</xdr:rowOff>
+      <xdr:colOff>276665</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>67030</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDD02225-C414-586D-038C-E4E67851389D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B0863B3-F4C6-44FD-945B-04C2280123DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1973,8 +2218,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4495800" y="10890250"/>
-          <a:ext cx="3210373" cy="1676634"/>
+          <a:off x="4540250" y="18669000"/>
+          <a:ext cx="3153215" cy="2543530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1983,6 +2228,84 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3381847" cy="1247949"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8C967AB-97B0-402C-96A8-534D659A0F49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="20199350"/>
+          <a:ext cx="3381847" cy="1247949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3153215" cy="2543530"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{547CD48F-9530-45C2-BABB-B361878BFD98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4540250" y="20123150"/>
+          <a:ext cx="3153215" cy="2543530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2360,7 +2683,7 @@
       <c r="C3" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="31" t="s">
         <v>106</v>
       </c>
       <c r="E3" s="16" t="s">
@@ -2371,7 +2694,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="19" t="s">
         <v>111</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -2391,13 +2714,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="19" t="s">
         <v>113</v>
       </c>
       <c r="D5" s="16" t="s">
@@ -2411,13 +2734,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="19" t="s">
         <v>118</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -2426,27 +2749,27 @@
       <c r="E6" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="19" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="19" t="s">
         <v>120</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="19" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2787,8 +3110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="V1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2817,173 +3140,173 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="20" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="20" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>1</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="20" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>1</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="20" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>1</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="20" t="s">
         <v>147</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E2">
-    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="36" priority="16" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="35" priority="17" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="34" priority="18" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="33" priority="13" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="32" priority="14" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="31" priority="15" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="30" priority="10" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="29" priority="11" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="28" priority="12" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="27" priority="7" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="26" priority="8" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",E7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",E7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3279,10 +3602,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3291,7 +3614,7 @@
     <col min="2" max="2" width="32.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
@@ -3302,7 +3625,7 @@
       <c r="A1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="15" t="s">
@@ -3311,675 +3634,1153 @@
       <c r="D1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="22" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="25">
         <v>5</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="25">
         <v>8</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="25">
         <v>5</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="25">
         <v>7</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="26">
         <v>43513</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="32"/>
+      <c r="I4" s="28">
+        <v>43511</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
-      <c r="I5" s="32"/>
+      <c r="I5" s="28">
+        <v>43512</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="32"/>
+      <c r="I6" s="28">
+        <v>43513</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
-      <c r="I7" s="32"/>
+      <c r="I7" s="28">
+        <v>43513</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
-      <c r="I8" s="32"/>
+      <c r="I8" s="28">
+        <v>43513</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="20"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
-      <c r="I9" s="32"/>
+      <c r="I9" s="28"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="41"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
     </row>
     <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="25">
         <v>2</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="25">
         <v>8</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="29"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26"/>
     </row>
     <row r="12" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="20" t="s">
         <v>140</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="32"/>
+      <c r="I12" s="28"/>
     </row>
     <row r="13" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="19" t="s">
         <v>147</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
-      <c r="I13" s="32"/>
+      <c r="I13" s="28"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="19" t="s">
         <v>147</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="32"/>
+      <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
-      <c r="B15" s="33"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
-      <c r="I15" s="32"/>
+      <c r="I15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="25">
         <v>2</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="25">
         <v>8</v>
       </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="29"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26"/>
     </row>
     <row r="17" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="20" t="s">
         <v>140</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
-      <c r="I17" s="32"/>
+      <c r="I17" s="28"/>
     </row>
     <row r="18" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="19" t="s">
         <v>147</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="32"/>
+      <c r="I18" s="28"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="19" t="s">
         <v>147</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
-      <c r="I19" s="32"/>
+      <c r="I19" s="28"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
-      <c r="B20" s="33"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="32"/>
+      <c r="I20" s="28"/>
     </row>
     <row r="21" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E21" s="28">
+      <c r="D21" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="E21" s="25">
         <v>2</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="25">
         <v>8</v>
       </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="29"/>
+      <c r="G21" s="25">
+        <v>2</v>
+      </c>
+      <c r="H21" s="25">
+        <v>8</v>
+      </c>
+      <c r="I21" s="26">
+        <v>43515</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D22" s="22" t="s">
-        <v>140</v>
+      <c r="D22" s="20" t="s">
+        <v>185</v>
       </c>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="32"/>
+      <c r="I22" s="28"/>
     </row>
     <row r="23" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="30" t="s">
-        <v>147</v>
+      <c r="D23" s="19" t="s">
+        <v>185</v>
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
-      <c r="I23" s="32"/>
+      <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="30" t="s">
-        <v>147</v>
+      <c r="D24" s="19" t="s">
+        <v>185</v>
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="32"/>
+      <c r="I24" s="28"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
-      <c r="B25" s="33"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
-      <c r="I25" s="32"/>
+      <c r="I25" s="28"/>
     </row>
     <row r="26" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="25">
         <v>2</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="25">
         <v>8</v>
       </c>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="29"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="26"/>
     </row>
     <row r="27" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="20" t="s">
         <v>140</v>
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
-      <c r="I27" s="32"/>
+      <c r="I27" s="28"/>
     </row>
     <row r="28" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="19" t="s">
         <v>147</v>
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="32"/>
+      <c r="I28" s="28"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="19" t="s">
         <v>147</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
-      <c r="I29" s="32"/>
+      <c r="I29" s="28"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="32"/>
-    </row>
-    <row r="31" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="26" t="s">
+      <c r="A30" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="37"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B31" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" s="22" t="s">
+      <c r="B31" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="25">
         <v>2</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31" s="25">
         <v>16</v>
       </c>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="29"/>
-    </row>
-    <row r="32" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="22" t="s">
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="26"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" s="20" t="s">
         <v>147</v>
       </c>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
-      <c r="I32" s="32"/>
-    </row>
-    <row r="33" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D33" s="30" t="s">
+      <c r="I32" s="28"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="19" t="s">
         <v>147</v>
       </c>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
-      <c r="I33" s="32"/>
+      <c r="I33" s="28"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="C34" s="30" t="s">
+      <c r="A34" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="C34" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="19" t="s">
         <v>147</v>
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
-      <c r="I34" s="32"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="5" t="s">
+      <c r="I34" s="28"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="37"/>
+    </row>
+    <row r="36" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E36" s="25">
+        <v>1</v>
+      </c>
+      <c r="F36" s="25">
+        <v>4</v>
+      </c>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="26"/>
+    </row>
+    <row r="37" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A37" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="28">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="28"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E39" s="25">
+        <v>2</v>
+      </c>
+      <c r="F39" s="25">
+        <v>8</v>
+      </c>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="26"/>
+    </row>
+    <row r="40" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A40" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="28"/>
+    </row>
+    <row r="41" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A41" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="28"/>
+    </row>
+    <row r="42" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="28"/>
+    </row>
+    <row r="43" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="28"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="37"/>
+    </row>
+    <row r="45" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E45" s="25">
+        <v>2</v>
+      </c>
+      <c r="F45" s="25">
+        <v>16</v>
+      </c>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="26"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="28"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="28"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="28"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="28"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B52"/>
+      <c r="C52" s="1"/>
+      <c r="I52"/>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B53"/>
+      <c r="C53" s="1"/>
+      <c r="I53"/>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B54" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="5"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="5" t="s">
+      <c r="I54"/>
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B55"/>
+      <c r="C55" s="1"/>
+      <c r="I55"/>
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B56"/>
+      <c r="C56" s="1"/>
+      <c r="I56"/>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B57"/>
+      <c r="C57" s="5"/>
+      <c r="I57"/>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B58"/>
+      <c r="C58" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="1" t="s">
+      <c r="I58"/>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B59"/>
+      <c r="C59" s="1"/>
+      <c r="I59"/>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B60"/>
+      <c r="C60" s="1"/>
+      <c r="I60"/>
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B61"/>
+      <c r="C61" s="1"/>
+      <c r="I61"/>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B62"/>
+      <c r="C62" s="5"/>
+      <c r="I62"/>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B63"/>
+      <c r="C63" s="1"/>
+      <c r="I63"/>
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B64"/>
+      <c r="C64" s="1"/>
+      <c r="I64"/>
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B65"/>
+      <c r="C65" s="1"/>
+      <c r="I65"/>
+      <c r="J65" s="2"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B66"/>
+      <c r="C66" s="1"/>
+      <c r="I66"/>
+      <c r="J66" s="2"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B67"/>
+      <c r="C67" s="1"/>
+      <c r="I67"/>
+      <c r="J67" s="2"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B68"/>
+      <c r="C68" s="1"/>
+      <c r="I68"/>
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B69"/>
+      <c r="C69" s="1"/>
+      <c r="I69"/>
+      <c r="J69" s="2"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B70"/>
+      <c r="C70" s="1"/>
+      <c r="I70"/>
+      <c r="J70" s="2"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B71"/>
+      <c r="C71" s="1"/>
+      <c r="I71"/>
+      <c r="J71" s="2"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B72"/>
+      <c r="C72" s="1"/>
+      <c r="I72"/>
+      <c r="J72" s="2"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B73"/>
+      <c r="C73" s="1"/>
+      <c r="I73"/>
+      <c r="J73" s="2"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B87" s="5"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B88" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="1" t="s">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="5" t="s">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B92" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" s="1" t="s">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B93" s="1" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="To Do">
+  <conditionalFormatting sqref="D74:D1048576 D1:D43">
+    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="EPIC-">
+      <formula>NOT(ISERROR(SEARCH("EPIC-",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:D49">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",D44)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",D44)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",D44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52:E73">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",E52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",E52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",E52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52:B73">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="EPIC-">
+      <formula>NOT(ISERROR(SEARCH("EPIC-",B52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3990,13 +4791,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
@@ -4027,8 +4838,135 @@
         <v>18</v>
       </c>
     </row>
+    <row r="2" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="37"/>
+    </row>
+    <row r="3" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="25">
+        <v>2</v>
+      </c>
+      <c r="F3" s="25">
+        <v>16</v>
+      </c>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
+    </row>
+    <row r="4" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="28"/>
+    </row>
+    <row r="5" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="28"/>
+    </row>
+    <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="28"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="D3:D6">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:A6">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="EPIC-">
+      <formula>NOT(ISERROR(SEARCH("EPIC-",A3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="EPIC-">
+      <formula>NOT(ISERROR(SEARCH("EPIC-",A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
